--- a/src/test/java/data/users.xlsx
+++ b/src/test/java/data/users.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t/>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>standard_user</t>
@@ -95,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,47 +109,55 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="0">
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>12</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
